--- a/Data Files/TestDataSanity.xlsx
+++ b/Data Files/TestDataSanity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohinis\Documents\GitHub\AccessWebCICD\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudhak\Accessweb_Merged\AccessWeb\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DEF61A-325F-4E08-9249-07E4255FB36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2711854-D322-416A-A017-45CD4BF1E41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="954" firstSheet="6" activeTab="7" xr2:uid="{C6F85985-84AE-4DCB-8550-9B2F16782E4E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="954" firstSheet="1" activeTab="6" xr2:uid="{C6F85985-84AE-4DCB-8550-9B2F16782E4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="26" r:id="rId1"/>
@@ -1035,7 +1035,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1043,12 +1043,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1061,6 +1076,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1588,7 +1609,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D11"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1915,7 +1936,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2616,7 +2637,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3619,7 +3640,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3642,18 +3663,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -3664,13 +3685,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3831,8 +3852,8 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3965,10 +3986,10 @@
   <sheetPr codeName="Sheet9">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4008,142 +4029,169 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="14" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="14">
         <v>200</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="14" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="14">
         <v>120</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="14" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="14">
         <v>2</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="14" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="14" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="14">
         <v>2</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="14" t="s">
         <v>155</v>
       </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
